--- a/graduate_code_r/output/data/correlation_num_num.xlsx
+++ b/graduate_code_r/output/data/correlation_num_num.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="H2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="K2">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -469,25 +469,25 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.3761312006663606</v>
+        <v>0.3817806952767252</v>
       </c>
       <c r="D3">
         <v>0.95</v>
       </c>
       <c r="E3">
-        <v>0.2180681994458856</v>
+        <v>0.08806835741593293</v>
       </c>
       <c r="F3">
-        <v>0.5149657614040346</v>
+        <v>0.6144179873713277</v>
       </c>
       <c r="G3">
-        <v>4.592696968712261</v>
+        <v>2.612480867417843</v>
       </c>
       <c r="H3">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>1.032756919320341e-05</v>
+        <v>0.01260071440733926</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.6331102080024763</v>
+        <v>0.6678130034988742</v>
       </c>
       <c r="D4">
         <v>0.95</v>
       </c>
       <c r="E4">
-        <v>0.5173184321750163</v>
+        <v>0.4565465915990845</v>
       </c>
       <c r="F4">
-        <v>0.7261379853085097</v>
+        <v>0.8077881557468465</v>
       </c>
       <c r="G4">
-        <v>9.253557752848666</v>
+        <v>5.6743990636829</v>
       </c>
       <c r="H4">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>1.912231806893502e-15</v>
+        <v>4.066435100770425e-06</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="K4">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -551,25 +551,25 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.3761312006663606</v>
+        <v>0.3817806952767252</v>
       </c>
       <c r="D5">
         <v>0.95</v>
       </c>
       <c r="E5">
-        <v>0.2180681994458856</v>
+        <v>0.08806835741593293</v>
       </c>
       <c r="F5">
-        <v>0.5149657614040346</v>
+        <v>0.6144179873713277</v>
       </c>
       <c r="G5">
-        <v>4.592696968712261</v>
+        <v>2.612480867417843</v>
       </c>
       <c r="H5">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>1.032756919320341e-05</v>
+        <v>0.01260071440733926</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="K5">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="H6">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="K6">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -635,25 +635,25 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.5247568226662236</v>
+        <v>0.6080631043697474</v>
       </c>
       <c r="D7">
         <v>0.95</v>
       </c>
       <c r="E7">
-        <v>0.3875919183421243</v>
+        <v>0.3730805544016644</v>
       </c>
       <c r="F7">
-        <v>0.6391885090072245</v>
+        <v>0.7697393599270039</v>
       </c>
       <c r="G7">
-        <v>6.97436770353626</v>
+        <v>4.844166144250451</v>
       </c>
       <c r="H7">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="I7">
-        <v>2.935092185187141e-10</v>
+        <v>3.885796419602245e-05</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="K7">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -676,25 +676,25 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.6331102080024763</v>
+        <v>0.6678130034988742</v>
       </c>
       <c r="D8">
         <v>0.95</v>
       </c>
       <c r="E8">
-        <v>0.5173184321750163</v>
+        <v>0.4565465915990845</v>
       </c>
       <c r="F8">
-        <v>0.7261379853085097</v>
+        <v>0.8077881557468465</v>
       </c>
       <c r="G8">
-        <v>9.253557752848666</v>
+        <v>5.6743990636829</v>
       </c>
       <c r="H8">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="I8">
-        <v>1.912231806893502e-15</v>
+        <v>4.066435100770425e-06</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="K8">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -717,25 +717,25 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.5247568226662236</v>
+        <v>0.6080631043697474</v>
       </c>
       <c r="D9">
         <v>0.95</v>
       </c>
       <c r="E9">
-        <v>0.3875919183421243</v>
+        <v>0.3730805544016644</v>
       </c>
       <c r="F9">
-        <v>0.6391885090072245</v>
+        <v>0.7697393599270039</v>
       </c>
       <c r="G9">
-        <v>6.97436770353626</v>
+        <v>4.844166144250451</v>
       </c>
       <c r="H9">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="I9">
-        <v>2.935092185187141e-10</v>
+        <v>3.885796419602245e-05</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="K9">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="H10">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="K10">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/graduate_code_r/output/data/correlation_num_num.xlsx
+++ b/graduate_code_r/output/data/correlation_num_num.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="H2">
-        <v>40</v>
+        <v>560</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="K2">
-        <v>42</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3">
@@ -469,25 +469,25 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.3817806952767252</v>
+        <v>0.3108750000392452</v>
       </c>
       <c r="D3">
         <v>0.95</v>
       </c>
       <c r="E3">
-        <v>0.08806835741593293</v>
+        <v>0.2341881575958373</v>
       </c>
       <c r="F3">
-        <v>0.6144179873713277</v>
+        <v>0.3837171625221495</v>
       </c>
       <c r="G3">
-        <v>2.612480867417843</v>
+        <v>7.740164105173763</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>560</v>
       </c>
       <c r="I3">
-        <v>0.01260071440733926</v>
+        <v>9.327183056825808e-14</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>42</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4">
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.6678130034988742</v>
+        <v>0.024022607349038</v>
       </c>
       <c r="D4">
         <v>0.95</v>
       </c>
       <c r="E4">
-        <v>0.4565465915990845</v>
+        <v>-0.0542553553466902</v>
       </c>
       <c r="F4">
-        <v>0.8077881557468465</v>
+        <v>0.1020071102173234</v>
       </c>
       <c r="G4">
-        <v>5.6743990636829</v>
+        <v>0.6016989615013411</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>627</v>
       </c>
       <c r="I4">
-        <v>4.066435100770425e-06</v>
+        <v>0.5475920354417116</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="K4">
-        <v>42</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5">
@@ -551,25 +551,25 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.3817806952767252</v>
+        <v>0.3108750000392452</v>
       </c>
       <c r="D5">
         <v>0.95</v>
       </c>
       <c r="E5">
-        <v>0.08806835741593293</v>
+        <v>0.2341881575958373</v>
       </c>
       <c r="F5">
-        <v>0.6144179873713277</v>
+        <v>0.3837171625221495</v>
       </c>
       <c r="G5">
-        <v>2.612480867417843</v>
+        <v>7.740164105173763</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>560</v>
       </c>
       <c r="I5">
-        <v>0.01260071440733926</v>
+        <v>9.327183056825808e-14</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="K5">
-        <v>42</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>560</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="K6">
-        <v>42</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7">
@@ -634,26 +634,11 @@
           <t>录取状态</t>
         </is>
       </c>
-      <c r="C7">
-        <v>0.6080631043697474</v>
-      </c>
       <c r="D7">
         <v>0.95</v>
       </c>
-      <c r="E7">
-        <v>0.3730805544016644</v>
-      </c>
-      <c r="F7">
-        <v>0.7697393599270039</v>
-      </c>
-      <c r="G7">
-        <v>4.844166144250451</v>
-      </c>
       <c r="H7">
-        <v>40</v>
-      </c>
-      <c r="I7">
-        <v>3.885796419602245e-05</v>
+        <v>560</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -661,7 +646,7 @@
         </is>
       </c>
       <c r="K7">
-        <v>42</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8">
@@ -676,25 +661,25 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.6678130034988742</v>
+        <v>0.024022607349038</v>
       </c>
       <c r="D8">
         <v>0.95</v>
       </c>
       <c r="E8">
-        <v>0.4565465915990845</v>
+        <v>-0.0542553553466902</v>
       </c>
       <c r="F8">
-        <v>0.8077881557468465</v>
+        <v>0.1020071102173234</v>
       </c>
       <c r="G8">
-        <v>5.6743990636829</v>
+        <v>0.6016989615013411</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>627</v>
       </c>
       <c r="I8">
-        <v>4.066435100770425e-06</v>
+        <v>0.5475920354417116</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -702,7 +687,7 @@
         </is>
       </c>
       <c r="K8">
-        <v>42</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9">
@@ -716,26 +701,11 @@
           <t>复试分数</t>
         </is>
       </c>
-      <c r="C9">
-        <v>0.6080631043697474</v>
-      </c>
       <c r="D9">
         <v>0.95</v>
       </c>
-      <c r="E9">
-        <v>0.3730805544016644</v>
-      </c>
-      <c r="F9">
-        <v>0.7697393599270039</v>
-      </c>
-      <c r="G9">
-        <v>4.844166144250451</v>
-      </c>
       <c r="H9">
-        <v>40</v>
-      </c>
-      <c r="I9">
-        <v>3.885796419602245e-05</v>
+        <v>560</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -743,7 +713,7 @@
         </is>
       </c>
       <c r="K9">
-        <v>42</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10">
@@ -775,7 +745,7 @@
         </is>
       </c>
       <c r="H10">
-        <v>40</v>
+        <v>560</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -786,7 +756,7 @@
         </is>
       </c>
       <c r="K10">
-        <v>42</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
